--- a/src/test/resources/Bulk Excel File/BulkProduct/Auto Product2.xlsx
+++ b/src/test/resources/Bulk Excel File/BulkProduct/Auto Product2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B92A16D-8B1A-4570-BF8A-38D0B05BD337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E20E03-DC1B-46A8-B6D9-AB3379863F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,13 +445,13 @@
     <t>Automation444</t>
   </si>
   <si>
-    <t>A111</t>
-  </si>
-  <si>
-    <t>A1112</t>
-  </si>
-  <si>
-    <t>A2333</t>
+    <t>A897465</t>
+  </si>
+  <si>
+    <t>A978465</t>
+  </si>
+  <si>
+    <t>A89746513</t>
   </si>
 </sst>
 </file>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
